--- a/codebase/netmarkets/jsp/ext/ziang/mpm/template/WorkflowPicTepm.xlsx
+++ b/codebase/netmarkets/jsp/ext/ziang/mpm/template/WorkflowPicTepm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\BOM-manager\codebase\netmarkets\jsp\ext\ziang\mpm\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC46387-574C-44FD-A37C-701164F2124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984132DE-C576-4304-AFC1-B2941741ADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1DDD29D-FDE8-4631-8932-82711E58BAC6}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="picEndX">Sheet1!$N$11</definedName>
+    <definedName name="picEndY">Sheet1!$A$27</definedName>
+    <definedName name="picStartIndex">Sheet1!$F$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$32</definedName>
-    <definedName name="绘图起始点">Sheet1!$F$11</definedName>
-    <definedName name="流程图结束点X">Sheet1!$N$11</definedName>
-    <definedName name="流程图结束点Y">Sheet1!$A$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1117,114 +1117,108 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,7 +1231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1246,86 +1246,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2831,18 +2831,18 @@
       <c r="D1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="100" t="s">
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="83"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="125"/>
       <c r="M1" s="60"/>
-      <c r="N1" s="85"/>
+      <c r="N1" s="127"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
@@ -2851,18 +2851,18 @@
       <c r="D2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="87" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="84"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="126"/>
       <c r="M2" s="58"/>
-      <c r="N2" s="86"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
@@ -2871,20 +2871,20 @@
       <c r="B3" s="96"/>
       <c r="C3" s="97"/>
       <c r="D3" s="93"/>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="96"/>
       <c r="I3" s="96"/>
       <c r="J3" s="97"/>
       <c r="K3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
@@ -2893,60 +2893,60 @@
       <c r="B4" s="55"/>
       <c r="C4" s="54"/>
       <c r="D4" s="94"/>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="72"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
       <c r="K4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="17"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="76"/>
       <c r="G5"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="14"/>
       <c r="M5"/>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="127"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="109"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="7"/>
       <c r="H6" s="10"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="111"/>
+      <c r="K6" s="74"/>
       <c r="L6" s="8"/>
       <c r="M6" s="7"/>
       <c r="N6" s="6"/>
@@ -2955,12 +2955,12 @@
       <c r="A7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="96"/>
       <c r="D7" s="97"/>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="101" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="51"/>
@@ -2977,12 +2977,12 @@
       <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="90"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="102"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
@@ -3012,9 +3012,9 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="42"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
@@ -3028,9 +3028,9 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="39"/>
       <c r="F11" s="64"/>
       <c r="G11" s="64"/>
@@ -3044,9 +3044,9 @@
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="39"/>
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
@@ -3060,9 +3060,9 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="39"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -3076,9 +3076,9 @@
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="39"/>
       <c r="F14" s="64"/>
       <c r="G14" s="64"/>
@@ -3092,9 +3092,9 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="39"/>
       <c r="F15" s="64"/>
       <c r="G15" s="64"/>
@@ -3108,9 +3108,9 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="39"/>
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
@@ -3124,9 +3124,9 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="39"/>
       <c r="F17" s="64"/>
       <c r="G17" s="64"/>
@@ -3140,9 +3140,9 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="39"/>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
@@ -3156,9 +3156,9 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="39"/>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -3172,9 +3172,9 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="39"/>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
@@ -3188,9 +3188,9 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="39"/>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
@@ -3204,9 +3204,9 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="99"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="39"/>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
@@ -3220,9 +3220,9 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="39"/>
       <c r="F23" s="64"/>
       <c r="G23" s="64"/>
@@ -3236,9 +3236,9 @@
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="39"/>
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
@@ -3252,9 +3252,9 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="39"/>
       <c r="F25" s="64"/>
       <c r="G25" s="64"/>
@@ -3268,9 +3268,9 @@
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="37"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -3283,22 +3283,22 @@
       <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="81"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34" t="s">
@@ -3322,10 +3322,10 @@
       <c r="G28" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="119" t="s">
+      <c r="H28" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="120"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="32" t="s">
         <v>11</v>
       </c>
@@ -3335,10 +3335,10 @@
       <c r="L28" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="119" t="s">
+      <c r="M28" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="121"/>
+      <c r="N28" s="84"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
@@ -3350,13 +3350,13 @@
       <c r="E29" s="29"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="92"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="132"/>
       <c r="J29" s="29"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="80"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="123"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
@@ -3366,13 +3366,13 @@
       <c r="E30" s="24"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="122"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
       <c r="J30" s="24"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="82"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="124"/>
     </row>
     <row r="31" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
@@ -3382,13 +3382,13 @@
       <c r="E31" s="19"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="124"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="88"/>
       <c r="J31" s="19"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="125"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="89"/>
     </row>
     <row r="32" spans="1:14" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3397,6 +3397,40 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
@@ -3410,40 +3444,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="L3:N4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H29:I29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
